--- a/parabolic/2025/09/02/parabolic.xlsx
+++ b/parabolic/2025/09/02/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>186A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>995</v>
+        <v>700</v>
       </c>
       <c r="D2" t="n">
-        <v>873500</v>
+        <v>2646100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>186A</t>
+          <t>2158</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>701</v>
+        <v>830</v>
       </c>
       <c r="D3" t="n">
-        <v>1787600</v>
+        <v>627400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2158</t>
+          <t>2666</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>838</v>
+        <v>167</v>
       </c>
       <c r="D4" t="n">
-        <v>304700</v>
+        <v>178600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D5" t="n">
-        <v>231100</v>
+        <v>424000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>2762</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>667</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>2540200</v>
+        <v>260800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4176</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>497</v>
+        <v>669</v>
       </c>
       <c r="D7" t="n">
-        <v>481600</v>
+        <v>3932400</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>861</v>
+        <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>108000</v>
+        <v>631400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5074</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D9" t="n">
-        <v>264200</v>
+        <v>122200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>5563</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>338</v>
+        <v>150</v>
       </c>
       <c r="D10" t="n">
-        <v>434500</v>
+        <v>124600</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>4996</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>268</v>
+        <v>863</v>
       </c>
       <c r="D11" t="n">
-        <v>28971300</v>
+        <v>185900</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>5074</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>859</v>
+        <v>372</v>
       </c>
       <c r="D12" t="n">
-        <v>289800</v>
+        <v>362100</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="D13" t="n">
-        <v>102200</v>
+        <v>519600</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>667</v>
+        <v>270</v>
       </c>
       <c r="D14" t="n">
-        <v>207800</v>
+        <v>56344300</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6619</t>
+          <t>6035</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>268</v>
+        <v>806</v>
       </c>
       <c r="D15" t="n">
-        <v>1226400</v>
+        <v>213000</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8848</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>727</v>
+        <v>866</v>
       </c>
       <c r="D16" t="n">
-        <v>353300</v>
+        <v>487100</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>9505</t>
+          <t>6140</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,16 +827,154 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>922.5999755859375</v>
+        <v>839</v>
       </c>
       <c r="D17" t="n">
-        <v>200600</v>
+        <v>125400</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>6195</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>207</v>
+      </c>
+      <c r="D18" t="n">
+        <v>129800</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>6535</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>660</v>
+      </c>
+      <c r="D19" t="n">
+        <v>288400</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>6619</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>266</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1539500</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>8848</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>726</v>
+      </c>
+      <c r="D21" t="n">
+        <v>515300</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>9501</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>774.7000122070312</v>
+      </c>
+      <c r="D22" t="n">
+        <v>56667300</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>9505</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>925.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>285800</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/02/parabolic.xlsx
+++ b/parabolic/2025/09/02/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="D2" t="n">
-        <v>2646100</v>
+        <v>3138600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D3" t="n">
-        <v>627400</v>
+        <v>867400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" t="n">
-        <v>178600</v>
+        <v>192700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D5" t="n">
-        <v>424000</v>
+        <v>555600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2762</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>662</v>
       </c>
       <c r="D6" t="n">
-        <v>260800</v>
+        <v>4595800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>669</v>
+        <v>497</v>
       </c>
       <c r="D7" t="n">
-        <v>3932400</v>
+        <v>781700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4176</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="D8" t="n">
-        <v>631400</v>
+        <v>158900</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4228</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>374</v>
+        <v>149</v>
       </c>
       <c r="D9" t="n">
-        <v>122200</v>
+        <v>256400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4582</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>150</v>
+        <v>607</v>
       </c>
       <c r="D10" t="n">
-        <v>124600</v>
+        <v>162600</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D11" t="n">
-        <v>185900</v>
+        <v>254200</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D12" t="n">
-        <v>362100</v>
+        <v>500500</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>5563</t>
+          <t>5247</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>333</v>
+        <v>977</v>
       </c>
       <c r="D13" t="n">
-        <v>519600</v>
+        <v>950100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5363</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>270</v>
+        <v>533</v>
       </c>
       <c r="D14" t="n">
-        <v>56344300</v>
+        <v>134200</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6035</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>806</v>
+        <v>684</v>
       </c>
       <c r="D15" t="n">
-        <v>213000</v>
+        <v>126600</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>866</v>
+        <v>332</v>
       </c>
       <c r="D16" t="n">
-        <v>487100</v>
+        <v>625900</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>6140</t>
+          <t>5698</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>839</v>
+        <v>517</v>
       </c>
       <c r="D17" t="n">
-        <v>125400</v>
+        <v>167300</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="D18" t="n">
-        <v>129800</v>
+        <v>73605700</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>6035</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>660</v>
+        <v>802</v>
       </c>
       <c r="D19" t="n">
-        <v>288400</v>
+        <v>322100</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>6619</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>266</v>
+        <v>861</v>
       </c>
       <c r="D20" t="n">
-        <v>1539500</v>
+        <v>556800</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>8848</t>
+          <t>6140</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>726</v>
+        <v>844</v>
       </c>
       <c r="D21" t="n">
-        <v>515300</v>
+        <v>215900</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>9501</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>774.7000122070312</v>
+        <v>207</v>
       </c>
       <c r="D22" t="n">
-        <v>56667300</v>
+        <v>139500</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>9505</t>
+          <t>6535</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,16 +965,154 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>925.5</v>
+        <v>657</v>
       </c>
       <c r="D23" t="n">
-        <v>285800</v>
+        <v>336800</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>6619</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>261</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1852200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>8508</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>452</v>
+      </c>
+      <c r="D25" t="n">
+        <v>203900</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>8848</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>730</v>
+      </c>
+      <c r="D26" t="n">
+        <v>704000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>9405</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>764</v>
+      </c>
+      <c r="D27" t="n">
+        <v>106900</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>9501</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>769.2000122070312</v>
+      </c>
+      <c r="D28" t="n">
+        <v>74535300</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>9505</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>921.0999755859375</v>
+      </c>
+      <c r="D29" t="n">
+        <v>428900</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/02/parabolic.xlsx
+++ b/parabolic/2025/09/02/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="D2" t="n">
-        <v>3138600</v>
+        <v>3792700</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="D3" t="n">
-        <v>867400</v>
+        <v>1118100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D4" t="n">
-        <v>192700</v>
+        <v>271100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>838</v>
       </c>
       <c r="D5" t="n">
-        <v>555600</v>
+        <v>970200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D6" t="n">
-        <v>4595800</v>
+        <v>5299500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>497</v>
       </c>
       <c r="D7" t="n">
-        <v>781700</v>
+        <v>891200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D8" t="n">
-        <v>158900</v>
+        <v>195400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D9" t="n">
-        <v>256400</v>
+        <v>395300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="D10" t="n">
-        <v>162600</v>
+        <v>218700</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>4893</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>860</v>
+        <v>192</v>
       </c>
       <c r="D11" t="n">
-        <v>254200</v>
+        <v>521900</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5074</t>
+          <t>4996</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>375</v>
+        <v>860</v>
       </c>
       <c r="D12" t="n">
-        <v>500500</v>
+        <v>365400</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>5247</t>
+          <t>5074</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>977</v>
+        <v>373</v>
       </c>
       <c r="D13" t="n">
-        <v>950100</v>
+        <v>651900</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>5363</t>
+          <t>5247</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>533</v>
+        <v>980</v>
       </c>
       <c r="D14" t="n">
-        <v>134200</v>
+        <v>1163900</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>5408</t>
+          <t>5363</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>684</v>
+        <v>531</v>
       </c>
       <c r="D15" t="n">
-        <v>126600</v>
+        <v>209700</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>5563</t>
+          <t>5408</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>332</v>
+        <v>684</v>
       </c>
       <c r="D16" t="n">
-        <v>625900</v>
+        <v>204400</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>5698</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>517</v>
+        <v>332</v>
       </c>
       <c r="D17" t="n">
-        <v>167300</v>
+        <v>810200</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>5698</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>253</v>
+        <v>512</v>
       </c>
       <c r="D18" t="n">
-        <v>73605700</v>
+        <v>200300</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>6035</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>802</v>
+        <v>235</v>
       </c>
       <c r="D19" t="n">
-        <v>322100</v>
+        <v>109078300</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>6035</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>861</v>
+        <v>801</v>
       </c>
       <c r="D20" t="n">
-        <v>556800</v>
+        <v>452700</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>6140</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="D21" t="n">
-        <v>215900</v>
+        <v>775400</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6140</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>207</v>
+        <v>842</v>
       </c>
       <c r="D22" t="n">
-        <v>139500</v>
+        <v>285400</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>6535</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>657</v>
+        <v>207</v>
       </c>
       <c r="D23" t="n">
-        <v>336800</v>
+        <v>172000</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>6619</t>
+          <t>6535</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>261</v>
+        <v>663</v>
       </c>
       <c r="D24" t="n">
-        <v>1852200</v>
+        <v>406300</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>8508</t>
+          <t>6619</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>452</v>
+        <v>258</v>
       </c>
       <c r="D25" t="n">
-        <v>203900</v>
+        <v>2081800</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1025,7 +1025,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>8848</t>
+          <t>8508</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>730</v>
+        <v>452</v>
       </c>
       <c r="D26" t="n">
-        <v>704000</v>
+        <v>283400</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>9405</t>
+          <t>8848</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>764</v>
+        <v>726</v>
       </c>
       <c r="D27" t="n">
-        <v>106900</v>
+        <v>1071700</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>9501</t>
+          <t>9405</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>769.2000122070312</v>
+        <v>766</v>
       </c>
       <c r="D28" t="n">
-        <v>74535300</v>
+        <v>137300</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>9505</t>
+          <t>9501</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1103,16 +1103,39 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>921.0999755859375</v>
+        <v>770.2000122070312</v>
       </c>
       <c r="D29" t="n">
-        <v>428900</v>
+        <v>92880800</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>9505</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>925</v>
+      </c>
+      <c r="D30" t="n">
+        <v>739700</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
